--- a/data/samples_to_exclude.xlsx
+++ b/data/samples_to_exclude.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarbruck/OneDrive - University of Helsinki/RCC/Otso/RCC_textures_and_lymphocytes_publication_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376EF883-B8FD-544D-9EBA-D6933499B2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016AF86F-C632-1549-BF5C-8E882AEF2898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="-21140" windowWidth="19620" windowHeight="15900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$C$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="137">
   <si>
     <t>sampleid</t>
   </si>
@@ -56,9 +56,6 @@
     <t>6fe2aa8d-e5af-46bf-87c3-d4a88cb30f7a</t>
   </si>
   <si>
-    <t>08eca25b-5e76-4f65-bf8c-a8717cb5c6c0</t>
-  </si>
-  <si>
     <t>poor quality</t>
   </si>
   <si>
@@ -74,18 +71,6 @@
     <t>necrosis&amp;poor quality</t>
   </si>
   <si>
-    <t>d801f63e-8f54-40f7-a92e-487a41bb821c</t>
-  </si>
-  <si>
-    <t>1ef79fb0-b959-4d8b-9a11-3e05b1268958</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>a139b830-b915-4b9e-be8f-5ce5559aa9c2</t>
-  </si>
-  <si>
     <t>d3cc3186-05f8-47b7-a239-d71618237d4b</t>
   </si>
   <si>
@@ -98,9 +83,6 @@
     <t>712cc63c-ed6c-4190-b72d-4f188536e8e1</t>
   </si>
   <si>
-    <t>a8a9d4e2-f56d-42bc-af4c-01a5315c1f11</t>
-  </si>
-  <si>
     <t>27f8715a-7fbf-4587-ada3-a1bd49ae7448</t>
   </si>
   <si>
@@ -152,9 +134,6 @@
     <t>57a4ab41-c3df-469e-9275-23cfefeeaddf</t>
   </si>
   <si>
-    <t>ac248bfb-2520-4674-9cf4-78c807996246</t>
-  </si>
-  <si>
     <t>e706b2f7-a20b-4cef-8c63-620cf37f7934</t>
   </si>
   <si>
@@ -164,18 +143,12 @@
     <t>adf96412-f727-4f81-b053-6ff6f9c616f6</t>
   </si>
   <si>
-    <t>f71d8ee3-ff98-4def-b87a-7bc6848034b9</t>
-  </si>
-  <si>
     <t>f4bd176e-a6b7-4797-837a-049c384a8b09</t>
   </si>
   <si>
     <t>ba3337c8-2927-4966-a5af-39e5cef43ccf</t>
   </si>
   <si>
-    <t>fd258f3e-b4ce-4107-9bd6-d321840b97a8</t>
-  </si>
-  <si>
     <t>ed5f8d8f-5863-4d67-8257-7b7355615aaa</t>
   </si>
   <si>
@@ -194,9 +167,6 @@
     <t>97348cb5-be21-4a10-90c7-8220f5cae39a</t>
   </si>
   <si>
-    <t>53f836a9-f371-49aa-b325-58f3ecb43408</t>
-  </si>
-  <si>
     <t>72d911af-73e7-4270-9e5b-f81c769094ff</t>
   </si>
   <si>
@@ -221,15 +191,9 @@
     <t>not typical ccrcc</t>
   </si>
   <si>
-    <t>chromofobe RCC</t>
-  </si>
-  <si>
     <t>not typical ccrcc + weird stain</t>
   </si>
   <si>
-    <t>sarcomatoid?</t>
-  </si>
-  <si>
     <t>TCGA-CZ-4861</t>
   </si>
   <si>
@@ -290,9 +254,6 @@
     <t>TCGA-BP-4804</t>
   </si>
   <si>
-    <t>TCGA-BP-5182</t>
-  </si>
-  <si>
     <t>TCGA-BP-5201</t>
   </si>
   <si>
@@ -302,21 +263,12 @@
     <t>TCGA-CJ-5671</t>
   </si>
   <si>
-    <t>TCGA-BP-4784</t>
-  </si>
-  <si>
     <t>935be266-f9b9-4d1a-b68f-bd1477a3683a</t>
   </si>
   <si>
-    <t>TCGA-BP-5191</t>
-  </si>
-  <si>
     <t>TCGA-GK-A6C7</t>
   </si>
   <si>
-    <t>TCGA-B0-4810</t>
-  </si>
-  <si>
     <t>TCGA-AK-3453</t>
   </si>
   <si>
@@ -362,9 +314,6 @@
     <t>b7cf9d16-7427-403c-a546-3a95d848ab8c</t>
   </si>
   <si>
-    <t>TCGA-CJ-4908</t>
-  </si>
-  <si>
     <t>TCGA-B8-4619</t>
   </si>
   <si>
@@ -434,9 +383,6 @@
     <t>TCGA-A3-A8OV</t>
   </si>
   <si>
-    <t>TCGA-A3-3316</t>
-  </si>
-  <si>
     <t>67e5f183-1b50-4102-81cb-1ed692991226</t>
   </si>
   <si>
@@ -449,18 +395,12 @@
     <t>TCGA-CJ-5676</t>
   </si>
   <si>
-    <t>TCGA-BP-4169</t>
-  </si>
-  <si>
     <t>TCGA-CJ-5679</t>
   </si>
   <si>
     <t>TCGA-CJ-4891</t>
   </si>
   <si>
-    <t>TCGA-B0-5109</t>
-  </si>
-  <si>
     <t>TCGA-CJ-5678</t>
   </si>
   <si>
@@ -470,20 +410,50 @@
     <t>TCGA-CZ-4853</t>
   </si>
   <si>
-    <t>TCGA-CZ-5989</t>
-  </si>
-  <si>
     <t>TCGA-CJ-4899</t>
   </si>
   <si>
     <t>TCGAid</t>
+  </si>
+  <si>
+    <t>not ccrcc</t>
+  </si>
+  <si>
+    <t>TCGA-A3-3328</t>
+  </si>
+  <si>
+    <t>TCGA-AK-3433</t>
+  </si>
+  <si>
+    <t>TCGA-B2-3923</t>
+  </si>
+  <si>
+    <t>TCGA-BP-4334</t>
+  </si>
+  <si>
+    <t>TCGA-BP-4994</t>
+  </si>
+  <si>
+    <t>TCGA-B0-5117</t>
+  </si>
+  <si>
+    <t>TCGA-AK-3443</t>
+  </si>
+  <si>
+    <t>TCGA-AK-3447</t>
+  </si>
+  <si>
+    <t>TCGA-B0-5083</t>
+  </si>
+  <si>
+    <t>TCGA-B0-4699</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -512,6 +482,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -533,11 +509,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,801 +830,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="92" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F41" sqref="F1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="1014" width="10.5" customWidth="1"/>
-    <col min="1015" max="1017" width="8.33203125" customWidth="1"/>
+    <col min="4" max="1009" width="10.5" customWidth="1"/>
+    <col min="1010" max="1012" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
       <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
+        <v>114</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
+        <v>112</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
         <v>126</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
       <c r="B40" t="s">
         <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>57</v>
-      </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>58</v>
-      </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
         <v>50</v>
-      </c>
-      <c r="B44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
+        <v>111</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
+        <v>104</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
+        <v>104</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" t="s">
-        <v>81</v>
+        <v>97</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>81</v>
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C70">
+    <sortCondition ref="C2:C70"/>
+    <sortCondition ref="B2:B70"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
